--- a/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
+++ b/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\VBDR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\trans\VBDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841F23A7-FA3B-4017-ABF4-A931160913BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="13110"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="VBDR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>VBDR Vehicle Buyer Discount Rate</t>
   </si>
@@ -31,9 +32,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Vehcile buyer discount rates vary tremendously by study.</t>
-  </si>
-  <si>
     <t>The meta-analysis cited here includes studies that have found</t>
   </si>
   <si>
@@ -55,39 +53,6 @@
     <t>might be.</t>
   </si>
   <si>
-    <t>We use a 7% discount rate, because this is the rate the</t>
-  </si>
-  <si>
-    <t>EPA chose to use (without endorsing this rate) for</t>
-  </si>
-  <si>
-    <t>We use this rate for all vehicle types, since uncertainty</t>
-  </si>
-  <si>
-    <t>in the rate itself overwhelms any possible differences</t>
-  </si>
-  <si>
-    <t>in behavior between (say) an individual car-buyer and</t>
-  </si>
-  <si>
-    <t>a company that purchases trucks.</t>
-  </si>
-  <si>
-    <t>various calculations throughout their report.  (See p. 63.)</t>
-  </si>
-  <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>How Consumers Value Fuel Economy: A Literature Review</t>
-  </si>
-  <si>
-    <t>Page 63 (see Notes below)</t>
-  </si>
-  <si>
-    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P1006V0O.txt?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006%20Thru%202010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;UseQField=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5CZYFILES%5CINDEX%20DATA%5C06THRU10%5CTXT%5C00000016%5CP1006V0O.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=2#</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -107,13 +72,46 @@
   </si>
   <si>
     <t>Discount Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>We have chosen to use the discount rates applied in the PRIMES Reference Scenario 2016</t>
+  </si>
+  <si>
+    <t>These discount rates are differentiated by transport type (see below):</t>
+  </si>
+  <si>
+    <t>- Public transport (road and conventional rail) 7.5%;</t>
+  </si>
+  <si>
+    <t>- Public transport (advanced technologies, e.g. high speed rail) 8.5%;</t>
+  </si>
+  <si>
+    <t>- Business transport sectors (aviation, trucks, maritime) 9.5% ;</t>
+  </si>
+  <si>
+    <t>- Private cars and two-wheelers 11%.</t>
+  </si>
+  <si>
+    <t>Vehicle buyer discount rates vary tremendously by study.</t>
+  </si>
+  <si>
+    <t>European Commission</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/ener/files/documents/20160713%20draft_publication_REF2016_v13.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU Reference Scenario 2016: Energy, transport and GHG emissions Trends to 2050 </t>
+  </si>
+  <si>
+    <t>Page 47 (see Notes below)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +123,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,18 +153,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -174,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -249,6 +259,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -284,6 +311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,12 +503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -476,27 +522,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>21</v>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,152 +552,150 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>13</v>
+      <c r="A24" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
+      <c r="A25" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{AD86711E-EF24-4FDE-84DE-B7EDBD4E5757}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
+++ b/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\trans\VBDR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\VBDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841F23A7-FA3B-4017-ABF4-A931160913BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D03AF9-A242-4BBC-BCFA-62936AEA3897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="VBDR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>VBDR Vehicle Buyer Discount Rate</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>The meta-analysis cited here includes studies that have found</t>
-  </si>
-  <si>
-    <t>discount rates as low as 0.2% and as high as 77% per year.</t>
-  </si>
-  <si>
     <t>The implied discount rate is sensitive to numerous assumptions</t>
   </si>
   <si>
@@ -53,6 +44,18 @@
     <t>might be.</t>
   </si>
   <si>
+    <t>We use this rate for all vehicle types, since uncertainty</t>
+  </si>
+  <si>
+    <t>in the rate itself overwhelms any possible differences</t>
+  </si>
+  <si>
+    <t>in behavior between (say) an individual car-buyer and</t>
+  </si>
+  <si>
+    <t>a company that purchases trucks.</t>
+  </si>
+  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -74,44 +77,47 @@
     <t>Discount Rate (dimensionless)</t>
   </si>
   <si>
-    <t>We have chosen to use the discount rates applied in the PRIMES Reference Scenario 2016</t>
-  </si>
-  <si>
-    <t>These discount rates are differentiated by transport type (see below):</t>
-  </si>
-  <si>
-    <t>- Public transport (road and conventional rail) 7.5%;</t>
-  </si>
-  <si>
-    <t>- Public transport (advanced technologies, e.g. high speed rail) 8.5%;</t>
-  </si>
-  <si>
-    <t>- Business transport sectors (aviation, trucks, maritime) 9.5% ;</t>
-  </si>
-  <si>
-    <t>- Private cars and two-wheelers 11%.</t>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>https://media.rff.org/documents/wp_21-27.pdf</t>
+  </si>
+  <si>
+    <t>Resources for the Future</t>
+  </si>
+  <si>
+    <t>How Much Do Consumers Value Fuel Cost Savings? Evidence from the Passenger Vehicle Leasing Market</t>
+  </si>
+  <si>
+    <t>page 23</t>
   </si>
   <si>
     <t>Vehicle buyer discount rates vary tremendously by study.</t>
   </si>
   <si>
-    <t>European Commission</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/energy/sites/ener/files/documents/20160713%20draft_publication_REF2016_v13.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU Reference Scenario 2016: Energy, transport and GHG emissions Trends to 2050 </t>
-  </si>
-  <si>
-    <t>Page 47 (see Notes below)</t>
+    <t xml:space="preserve">We use a value of 15%, as it falls between values of 12% and </t>
+  </si>
+  <si>
+    <t>greater than 17% in the studies cited above.</t>
+  </si>
+  <si>
+    <t>Leard et al.</t>
+  </si>
+  <si>
+    <t>How Much Do Consumers Value Fuel Economy and Performance? Evidence from Technology Adoption</t>
+  </si>
+  <si>
+    <t>PDF page 6</t>
+  </si>
+  <si>
+    <t>https://www.rff.org/publications/reports/how-much-do-consumers-value-fuel-economy-and-performance-evidence-from-technology-adoption/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,14 +129,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,22 +151,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,128 +498,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{AD86711E-EF24-4FDE-84DE-B7EDBD4E5757}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -637,65 +646,65 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
       <c r="B7">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
+++ b/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\VBDR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\trans\VBDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D03AF9-A242-4BBC-BCFA-62936AEA3897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841F23A7-FA3B-4017-ABF4-A931160913BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="VBDR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>VBDR Vehicle Buyer Discount Rate</t>
   </si>
   <si>
+    <t>Source:</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>The meta-analysis cited here includes studies that have found</t>
+  </si>
+  <si>
+    <t>discount rates as low as 0.2% and as high as 77% per year.</t>
+  </si>
+  <si>
     <t>The implied discount rate is sensitive to numerous assumptions</t>
   </si>
   <si>
@@ -44,18 +53,6 @@
     <t>might be.</t>
   </si>
   <si>
-    <t>We use this rate for all vehicle types, since uncertainty</t>
-  </si>
-  <si>
-    <t>in the rate itself overwhelms any possible differences</t>
-  </si>
-  <si>
-    <t>in behavior between (say) an individual car-buyer and</t>
-  </si>
-  <si>
-    <t>a company that purchases trucks.</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -77,47 +74,44 @@
     <t>Discount Rate (dimensionless)</t>
   </si>
   <si>
-    <t>Sources:</t>
-  </si>
-  <si>
-    <t>https://media.rff.org/documents/wp_21-27.pdf</t>
-  </si>
-  <si>
-    <t>Resources for the Future</t>
-  </si>
-  <si>
-    <t>How Much Do Consumers Value Fuel Cost Savings? Evidence from the Passenger Vehicle Leasing Market</t>
-  </si>
-  <si>
-    <t>page 23</t>
+    <t>We have chosen to use the discount rates applied in the PRIMES Reference Scenario 2016</t>
+  </si>
+  <si>
+    <t>These discount rates are differentiated by transport type (see below):</t>
+  </si>
+  <si>
+    <t>- Public transport (road and conventional rail) 7.5%;</t>
+  </si>
+  <si>
+    <t>- Public transport (advanced technologies, e.g. high speed rail) 8.5%;</t>
+  </si>
+  <si>
+    <t>- Business transport sectors (aviation, trucks, maritime) 9.5% ;</t>
+  </si>
+  <si>
+    <t>- Private cars and two-wheelers 11%.</t>
   </si>
   <si>
     <t>Vehicle buyer discount rates vary tremendously by study.</t>
   </si>
   <si>
-    <t xml:space="preserve">We use a value of 15%, as it falls between values of 12% and </t>
-  </si>
-  <si>
-    <t>greater than 17% in the studies cited above.</t>
-  </si>
-  <si>
-    <t>Leard et al.</t>
-  </si>
-  <si>
-    <t>How Much Do Consumers Value Fuel Economy and Performance? Evidence from Technology Adoption</t>
-  </si>
-  <si>
-    <t>PDF page 6</t>
-  </si>
-  <si>
-    <t>https://www.rff.org/publications/reports/how-much-do-consumers-value-fuel-economy-and-performance-evidence-from-technology-adoption/</t>
+    <t>European Commission</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/ener/files/documents/20160713%20draft_publication_REF2016_v13.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU Reference Scenario 2016: Energy, transport and GHG emissions Trends to 2050 </t>
+  </si>
+  <si>
+    <t>Page 47 (see Notes below)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +123,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,18 +153,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -178,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -498,143 +504,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{AD86711E-EF24-4FDE-84DE-B7EDBD4E5757}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -646,65 +637,65 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
       <c r="B7">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
+++ b/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
@@ -1,34 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27021"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\VBDR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\trans\VBDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D03AF9-A242-4BBC-BCFA-62936AEA3897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841F23A7-FA3B-4017-ABF4-A931160913BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="VBDR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>VBDR Vehicle Buyer Discount Rate</t>
   </si>
   <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>European Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU Reference Scenario 2016: Energy, transport and GHG emissions Trends to 2050 </t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/ener/files/documents/20160713%20draft_publication_REF2016_v13.pdf</t>
+  </si>
+  <si>
+    <t>Page 47 (see Notes below)</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>Vehicle buyer discount rates vary tremendously by study.</t>
+  </si>
+  <si>
+    <t>The meta-analysis cited here includes studies that have found</t>
+  </si>
+  <si>
+    <t>discount rates as low as 0.2% and as high as 77% per year.</t>
+  </si>
+  <si>
     <t>The implied discount rate is sensitive to numerous assumptions</t>
   </si>
   <si>
@@ -44,16 +84,25 @@
     <t>might be.</t>
   </si>
   <si>
-    <t>We use this rate for all vehicle types, since uncertainty</t>
-  </si>
-  <si>
-    <t>in the rate itself overwhelms any possible differences</t>
-  </si>
-  <si>
-    <t>in behavior between (say) an individual car-buyer and</t>
-  </si>
-  <si>
-    <t>a company that purchases trucks.</t>
+    <t>We have chosen to use the discount rates applied in the PRIMES Reference Scenario 2016</t>
+  </si>
+  <si>
+    <t>These discount rates are differentiated by transport type (see below):</t>
+  </si>
+  <si>
+    <t>- Public transport (road and conventional rail) 7.5%;</t>
+  </si>
+  <si>
+    <t>- Public transport (advanced technologies, e.g. high speed rail) 8.5%;</t>
+  </si>
+  <si>
+    <t>- Business transport sectors (aviation, trucks, maritime) 9.5% ;</t>
+  </si>
+  <si>
+    <t>- Private cars and two-wheelers 11%.</t>
+  </si>
+  <si>
+    <t>Discount Rate (dimensionless)</t>
   </si>
   <si>
     <t>LDVs</t>
@@ -72,52 +121,13 @@
   </si>
   <si>
     <t>motorbikes</t>
-  </si>
-  <si>
-    <t>Discount Rate (dimensionless)</t>
-  </si>
-  <si>
-    <t>Sources:</t>
-  </si>
-  <si>
-    <t>https://media.rff.org/documents/wp_21-27.pdf</t>
-  </si>
-  <si>
-    <t>Resources for the Future</t>
-  </si>
-  <si>
-    <t>How Much Do Consumers Value Fuel Cost Savings? Evidence from the Passenger Vehicle Leasing Market</t>
-  </si>
-  <si>
-    <t>page 23</t>
-  </si>
-  <si>
-    <t>Vehicle buyer discount rates vary tremendously by study.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We use a value of 15%, as it falls between values of 12% and </t>
-  </si>
-  <si>
-    <t>greater than 17% in the studies cited above.</t>
-  </si>
-  <si>
-    <t>Leard et al.</t>
-  </si>
-  <si>
-    <t>How Much Do Consumers Value Fuel Economy and Performance? Evidence from Technology Adoption</t>
-  </si>
-  <si>
-    <t>PDF page 6</t>
-  </si>
-  <si>
-    <t>https://www.rff.org/publications/reports/how-much-do-consumers-value-fuel-economy-and-performance-evidence-from-technology-adoption/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +139,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,18 +169,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -178,9 +200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,9 +240,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,26 +275,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,26 +310,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,143 +486,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{AD86711E-EF24-4FDE-84DE-B7EDBD4E5757}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -646,68 +619,323 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C20F2E-298B-485F-97EE-D281A2BFFFBE}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1318928A-7D18-40F1-9FF9-8B88DC1648C8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A03A88D-2D47-4CDE-B608-8D61F37E17F8}"/>
 </file>